--- a/CPS Security Modelling Literature Review Notes.xlsx
+++ b/CPS Security Modelling Literature Review Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee06c016cedea694/Documents/SMU EngD/ERP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaofei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{C4DF029F-C95C-2845-8929-DE2D6F8B806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE2D5BCA-B37C-484D-B3E6-F9988E691CD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC16A3-D9A8-274E-995E-6FA871AA8355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30620" windowHeight="26760" xr2:uid="{F8230598-9FA1-FD44-802D-456F1EEDCEEA}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CPS Security Modelling Literature Review Notes.xlsx
+++ b/CPS Security Modelling Literature Review Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaof\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F3491-B331-4BC9-81A2-572F9A43C6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81087E86-7065-4AC7-A287-6C5194790556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F8230598-9FA1-FD44-802D-456F1EEDCEEA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="326">
   <si>
     <t>The paper describes the application of STRIDE to assess threats to Advanced Driver Assistance Systems (ADAS) and mentions other threat modelling frameworks such as HEAVENS.</t>
   </si>
@@ -974,6 +974,51 @@
   </si>
   <si>
     <t>This study applies component-level threat modeling to a proposed infotainment system using the Microsoft STRIDE model.</t>
+  </si>
+  <si>
+    <t>This paper how a vulnerability database can support security development in the automotive sector and how it can be used in individual development phases.</t>
+  </si>
+  <si>
+    <t>This paper introduces a novel and configurable system-level framework to identify compromised smart grid devices.</t>
+  </si>
+  <si>
+    <t>This paper describes a framework for modeling the security of a cyber–physical system in which the behavior of the adversary is controlled by a threat model that captures – in a uniﬁed manner – the cyber aspects (with discrete values) and the physical aspects (with continuous values) of the cyber–physical system.</t>
+  </si>
+  <si>
+    <t>Countering Cyber Sabotage: Introducing Consequence-Driven, Cyber-Informed Engineering (CCE) introduces a new methodology to help critical infrastructure owners, operators and their security practitioners make demonstrable improvements in securing their most important functions and processes.</t>
+  </si>
+  <si>
+    <t>This paper proposes an approach to improve the security and resilience of a CPS deployment through a model-based design methodology leveraging security-by-design principles and Moving Target Defense (MTD) techniques, consisting in continually shifting a system conﬁguration to reduce the attack success probability and survive attacks.</t>
+  </si>
+  <si>
+    <t>This paper summarises the state-of-the-art on CPS security.</t>
+  </si>
+  <si>
+    <t>This paper presents a novel attack against the Combined Charging System, one of the most widely used DC rapid charging technologies for electric vehicles (EVs).</t>
+  </si>
+  <si>
+    <t>This paper provides a comprehensive survey of safety and cybersecurity co-engineering methods, and discusses relevant open issues and research challenges.</t>
+  </si>
+  <si>
+    <t>This paper describes a novel approach using Hidden Markov Models (HMM) to detect complex Internet attacks.</t>
+  </si>
+  <si>
+    <t>The authors present a novel game-theoretic approach GPLADD to attack metrics estimation and demonstrate it on attack data derived from MITRE’s ATT&amp;CK Framework and other sources.</t>
+  </si>
+  <si>
+    <t>This work provides a cyber-resilience simulation-based assessment for a seawater desalination plant and its connected distribution system.</t>
+  </si>
+  <si>
+    <t>The authors propose an approach for aligning CPS safety and security at early development phases by synchronizing safety and security lifecycles based on ISA84 and ISA99 standards.</t>
+  </si>
+  <si>
+    <t>The authors identify and illustrate four key shortcomings of DFD models when used for security threat modeling, related to the inadequate representation of security concepts, data elements, abstraction levels, and deployment information.</t>
+  </si>
+  <si>
+    <t>The authors propose a novel and accurate APT detection model that removes unnecessary phases and focuses on the remaining ones with improved deﬁnitions.</t>
+  </si>
+  <si>
+    <t>The authors highlight the difference between SCADA and standard IT systems and present a set of security property goals.</t>
   </si>
 </sst>
 </file>
@@ -1422,11 +1467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E68A97-3E29-D54E-9E90-031662D05DA0}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="68.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="117.6640625" style="4" customWidth="1"/>
   </cols>
@@ -1571,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.4">
@@ -1618,7 +1665,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -1626,7 +1673,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.4">
@@ -1637,7 +1684,7 @@
         <v>128</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -1662,7 +1709,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -1670,7 +1717,7 @@
         <v>129</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.4">
@@ -1692,7 +1739,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>123</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.4">
@@ -1934,7 +1981,7 @@
         <v>134</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="26" x14ac:dyDescent="0.4">
@@ -2033,7 +2080,7 @@
         <v>139</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -2044,7 +2091,7 @@
         <v>137</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="52" x14ac:dyDescent="0.4">
@@ -2341,10 +2388,10 @@
         <v>92</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="26" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -2352,7 +2399,7 @@
         <v>93</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -2363,7 +2410,7 @@
         <v>94</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>123</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -2421,7 +2468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="26" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>204</v>
       </c>
@@ -2429,7 +2476,7 @@
         <v>145</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -2476,7 +2523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="26" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>207</v>
       </c>
@@ -2484,7 +2531,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>123</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -2616,7 +2663,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>123</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -2704,7 +2751,7 @@
         <v>119</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="39" x14ac:dyDescent="0.4">
